--- a/src/main/resources/template/excel/export/StockAdjust.xlsx
+++ b/src/main/resources/template/excel/export/StockAdjust.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="L4")</t>
+          <t>jx:area(lastCell="P4")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="L3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="P3")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>库存调整单</t>
   </si>
@@ -137,10 +137,6 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -154,16 +150,61 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(K3:K3:K3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(L3:L3:L3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(M3:M3:M3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(O3:O3:O3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税成本价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedPrice}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedAmount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考税率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>税额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.taxRate}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.tax}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -271,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -289,13 +330,16 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -316,7 +360,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -602,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EG101"/>
+  <dimension ref="A1:EK101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,32 +658,37 @@
     <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.625" style="3" customWidth="1"/>
     <col min="4" max="5" width="10.625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="12.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+    <col min="7" max="8" width="12.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="12.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:141" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -761,8 +810,12 @@
       <c r="EE1" s="3"/>
       <c r="EF1" s="3"/>
       <c r="EG1" s="3"/>
+      <c r="EH1" s="3"/>
+      <c r="EI1" s="3"/>
+      <c r="EJ1" s="3"/>
+      <c r="EK1" s="3"/>
     </row>
-    <row r="2" spans="1:137" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:141" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -778,31 +831,39 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -924,8 +985,12 @@
       <c r="EE2" s="3"/>
       <c r="EF2" s="3"/>
       <c r="EG2" s="3"/>
+      <c r="EH2" s="3"/>
+      <c r="EI2" s="3"/>
+      <c r="EJ2" s="3"/>
+      <c r="EK2" s="3"/>
     </row>
-    <row r="3" spans="1:137" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:141" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -941,29 +1006,41 @@
       <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -972,35 +1049,43 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="M4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:137" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:137" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:137" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:137" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:137" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1173,7 @@
     <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
